--- a/Modules and Features.xlsx
+++ b/Modules and Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,6 @@
     <t>One-Time Registration</t>
   </si>
   <si>
-    <t>flat details associated with device no</t>
-  </si>
-  <si>
     <t>confirmation for valid flat details associated with device no.</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
   </si>
   <si>
     <t>10th feb</t>
+  </si>
+  <si>
+    <t>building name, flat no, floor no</t>
   </si>
 </sst>
 </file>
@@ -572,13 +572,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>97</v>
@@ -2529,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="B2:C2 D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2545,10 +2545,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:8" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>97</v>
@@ -2605,7 +2605,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="4"/>
@@ -2616,7 +2616,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="4"/>
@@ -2653,14 +2653,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="30">
+    <row r="11" spans="2:8" ht="45">
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="8"/>
@@ -2805,7 +2805,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" ht="30">
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -2813,7 +2813,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2843,7 +2843,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="8"/>
       <c r="E27" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2854,7 +2854,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="8"/>
       <c r="E28" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2865,7 +2865,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="8"/>
       <c r="E29" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2876,7 +2876,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2887,7 +2887,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2928,7 +2928,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
@@ -2987,7 +2987,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
@@ -2999,7 +2999,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="8"/>
       <c r="E41" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3054,7 +3054,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -3065,7 +3065,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="8"/>
       <c r="E47" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3129,7 +3129,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -3160,7 +3160,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3190,7 +3190,7 @@
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="4"/>
@@ -3202,7 +3202,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -3232,7 +3232,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="4"/>
       <c r="D63" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="4"/>
@@ -3252,7 +3252,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="4"/>
       <c r="D65" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4"/>
@@ -3282,7 +3282,7 @@
         <v>105</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="2:8">
@@ -3300,7 +3300,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
       <c r="D69" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="4"/>
@@ -3319,7 +3319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3463,10 +3463,10 @@
       <c r="C17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
     </row>

--- a/Modules and Features.xlsx
+++ b/Modules and Features.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
   <si>
     <t>S No</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>building name, flat no, floor no</t>
+  </si>
+  <si>
+    <t>Status: All,Raised, In-Process, Resolved, Cancelled</t>
   </si>
 </sst>
 </file>
@@ -875,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2529,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2668,7 +2671,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>

--- a/Modules and Features.xlsx
+++ b/Modules and Features.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,12 +11,15 @@
     <sheet name="App" sheetId="2" r:id="rId2"/>
     <sheet name="master" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
   <si>
     <t>S No</t>
   </si>
@@ -586,8 +589,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -2530,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H69"/>
+  <dimension ref="B2:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2692,7 +2723,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="4"/>
@@ -2703,7 +2734,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="4"/>
@@ -2714,7 +2745,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
@@ -2725,7 +2756,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
@@ -2736,7 +2767,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
@@ -2747,7 +2778,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
@@ -2758,7 +2789,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
@@ -2769,7 +2800,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
@@ -2780,7 +2811,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="4"/>
@@ -2791,40 +2822,40 @@
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" ht="30">
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" ht="30">
+    <row r="24" spans="2:8">
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2833,53 +2864,53 @@
     <row r="26" spans="2:8">
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" ht="30">
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="12" t="s">
-        <v>122</v>
+      <c r="E27" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" ht="30">
+    <row r="28" spans="2:8">
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="18" t="s">
-        <v>120</v>
+      <c r="E28" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" ht="30">
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="12" t="s">
-        <v>123</v>
+      <c r="E29" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" ht="30">
+    <row r="30" spans="2:8">
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>121</v>
+      <c r="E30" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2889,8 +2920,8 @@
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="9" t="s">
-        <v>124</v>
+      <c r="E31" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2901,7 +2932,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2911,9 +2942,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="E33" s="8"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2921,7 +2950,9 @@
     <row r="34" spans="2:8">
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2930,10 +2961,10 @@
     <row r="35" spans="2:8">
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2943,7 +2974,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2953,46 +2984,46 @@
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="5">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="8"/>
+      <c r="G38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="30">
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="30">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3001,8 +3032,8 @@
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="9" t="s">
-        <v>126</v>
+      <c r="E41" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3013,7 +3044,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3024,7 +3055,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3035,7 +3066,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -3045,8 +3076,8 @@
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>64</v>
+      <c r="E45" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3056,8 +3087,8 @@
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="9" t="s">
-        <v>128</v>
+      <c r="E46" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -3067,8 +3098,8 @@
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="10" t="s">
-        <v>129</v>
+      <c r="E47" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3079,7 +3110,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3090,7 +3121,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3100,9 +3131,7 @@
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="E50" s="8"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3110,30 +3139,30 @@
     <row r="51" spans="2:8">
       <c r="B51" s="5"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" ht="30">
       <c r="B52" s="5"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" ht="30">
+    <row r="53" spans="2:8">
       <c r="B53" s="5"/>
       <c r="C53" s="4"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="E53" s="8"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -3141,29 +3170,31 @@
     <row r="54" spans="2:8">
       <c r="B54" s="5"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" ht="30">
       <c r="B55" s="5"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" ht="30">
+    <row r="56" spans="2:8">
       <c r="B56" s="5"/>
       <c r="C56" s="4"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3173,9 +3204,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="4"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="E57" s="8"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3183,29 +3212,31 @@
     <row r="58" spans="2:8">
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="E58" s="8"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" ht="30">
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="2:8" ht="30">
+    <row r="60" spans="2:8">
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -3215,9 +3246,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="E61" s="8"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3225,7 +3254,9 @@
     <row r="62" spans="2:8">
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E62" s="8"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -3234,81 +3265,70 @@
     <row r="63" spans="2:8">
       <c r="B63" s="5"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" ht="30">
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="E64" s="8"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="2:8" ht="30">
+    <row r="65" spans="2:8">
       <c r="B65" s="5"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="5"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="5">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="5">
-        <v>4</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="8"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="E67" s="8"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="5"/>
       <c r="C68" s="4"/>
       <c r="D68" s="8" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="5"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
